--- a/Dialers Attendance.xlsx
+++ b/Dialers Attendance.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oss\Dropbox\OS Dashboard\ALL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ALL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C2924B4-D15F-4A01-9A28-D309B9D5DE5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CE7FF19-7F30-45BC-8791-D3BEB8C45ACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="61935" yWindow="1905" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3285" yWindow="2355" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table1" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">Table1!$A$1:$C$947</definedName>
+    <definedName name="ExternalData_1" localSheetId="0" hidden="1">Table1!$A$1:$C$967</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="949" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="10">
   <si>
     <t>date</t>
   </si>
@@ -201,8 +201,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{24112913-5115-4A45-8927-3108FA77D38F}" name="Table1_1" displayName="Table1_1" ref="A1:C947" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C947" xr:uid="{24112913-5115-4A45-8927-3108FA77D38F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{24112913-5115-4A45-8927-3108FA77D38F}" name="Table1_1" displayName="Table1_1" ref="A1:C967" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C967" xr:uid="{24112913-5115-4A45-8927-3108FA77D38F}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{8F859507-84CB-413F-9284-928F1DC3CFC2}" uniqueName="1" name="date" queryTableFieldId="1" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{FE2C3BF3-97D2-4FBA-8C8B-F5374DB4B9CB}" uniqueName="2" name="dialer" queryTableFieldId="2" dataDxfId="0"/>
@@ -499,10 +499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A336F12-E6EB-444F-B1DE-07B907CCBF0C}">
-  <dimension ref="A1:O947"/>
+  <dimension ref="A1:O967"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A918" workbookViewId="0">
-      <selection activeCell="L932" sqref="L932"/>
+    <sheetView tabSelected="1" topLeftCell="A948" workbookViewId="0">
+      <selection activeCell="E965" sqref="E965"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10978,6 +10978,226 @@
       </c>
       <c r="C947">
         <v>23</v>
+      </c>
+    </row>
+    <row r="948" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A948" s="1">
+        <v>45985</v>
+      </c>
+      <c r="B948" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C948">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="949" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A949" s="1">
+        <v>45985</v>
+      </c>
+      <c r="B949" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C949">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="950" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A950" s="1">
+        <v>45985</v>
+      </c>
+      <c r="B950" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C950">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="951" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A951" s="1">
+        <v>45986</v>
+      </c>
+      <c r="B951" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C951">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="952" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A952" s="1">
+        <v>45986</v>
+      </c>
+      <c r="B952" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C952">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="953" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A953" s="1">
+        <v>45986</v>
+      </c>
+      <c r="B953" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C953">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="954" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A954" s="1">
+        <v>45987</v>
+      </c>
+      <c r="B954" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C954">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="955" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A955" s="1">
+        <v>45987</v>
+      </c>
+      <c r="B955" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C955">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="956" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A956" s="1">
+        <v>45987</v>
+      </c>
+      <c r="B956" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C956">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="957" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A957" s="1">
+        <v>45989</v>
+      </c>
+      <c r="B957" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C957">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="958" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A958" s="1">
+        <v>45989</v>
+      </c>
+      <c r="B958" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C958">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="959" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A959" s="1">
+        <v>45992</v>
+      </c>
+      <c r="B959" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C959">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="960" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A960" s="1">
+        <v>45992</v>
+      </c>
+      <c r="B960" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C960">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="961" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A961" s="1">
+        <v>45992</v>
+      </c>
+      <c r="B961" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C961">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="962" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A962" s="1">
+        <v>45993</v>
+      </c>
+      <c r="B962" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C962">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="963" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A963" s="1">
+        <v>45993</v>
+      </c>
+      <c r="B963" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C963">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="964" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A964" s="1">
+        <v>45993</v>
+      </c>
+      <c r="B964" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C964">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="965" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A965" s="1">
+        <v>45994</v>
+      </c>
+      <c r="B965" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C965">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="966" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A966" s="1">
+        <v>45994</v>
+      </c>
+      <c r="B966" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C966">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="967" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A967" s="1">
+        <v>45994</v>
+      </c>
+      <c r="B967" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C967">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Dialers Attendance.xlsx
+++ b/Dialers Attendance.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29603"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ALL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CE7FF19-7F30-45BC-8791-D3BEB8C45ACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74E0A62B-9318-4BE3-95B7-ECD331504131}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3285" yWindow="2355" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Table1" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">Table1!$A$1:$C$967</definedName>
+    <definedName name="ExternalData_1" localSheetId="0" hidden="1">Table1!$A$1:$C$973</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="10">
   <si>
     <t>date</t>
   </si>
@@ -201,8 +201,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{24112913-5115-4A45-8927-3108FA77D38F}" name="Table1_1" displayName="Table1_1" ref="A1:C967" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C967" xr:uid="{24112913-5115-4A45-8927-3108FA77D38F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{24112913-5115-4A45-8927-3108FA77D38F}" name="Table1_1" displayName="Table1_1" ref="A1:C973" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C973" xr:uid="{24112913-5115-4A45-8927-3108FA77D38F}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{8F859507-84CB-413F-9284-928F1DC3CFC2}" uniqueName="1" name="date" queryTableFieldId="1" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{FE2C3BF3-97D2-4FBA-8C8B-F5374DB4B9CB}" uniqueName="2" name="dialer" queryTableFieldId="2" dataDxfId="0"/>
@@ -499,10 +499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A336F12-E6EB-444F-B1DE-07B907CCBF0C}">
-  <dimension ref="A1:O967"/>
+  <dimension ref="A1:O973"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A948" workbookViewId="0">
-      <selection activeCell="E965" sqref="E965"/>
+    <sheetView tabSelected="1" topLeftCell="A957" workbookViewId="0">
+      <selection activeCell="I966" sqref="I966"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11198,6 +11198,72 @@
       </c>
       <c r="C967">
         <v>25</v>
+      </c>
+    </row>
+    <row r="968" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A968" s="1">
+        <v>45995</v>
+      </c>
+      <c r="B968" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C968">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="969" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A969" s="1">
+        <v>45995</v>
+      </c>
+      <c r="B969" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C969">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="970" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A970" s="1">
+        <v>45995</v>
+      </c>
+      <c r="B970" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C970">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="971" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A971" s="1">
+        <v>45996</v>
+      </c>
+      <c r="B971" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C971">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="972" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A972" s="1">
+        <v>45996</v>
+      </c>
+      <c r="B972" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C972">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="973" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A973" s="1">
+        <v>45996</v>
+      </c>
+      <c r="B973" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C973">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Dialers Attendance.xlsx
+++ b/Dialers Attendance.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29603"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29611"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ALL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74E0A62B-9318-4BE3-95B7-ECD331504131}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4C9C4AC-0216-47F2-8853-C08B8A97D939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3285" yWindow="2355" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table1" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">Table1!$A$1:$C$973</definedName>
+    <definedName name="ExternalData_1" localSheetId="0" hidden="1">Table1!$A$1:$C$988</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="10">
   <si>
     <t>date</t>
   </si>
@@ -201,8 +201,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{24112913-5115-4A45-8927-3108FA77D38F}" name="Table1_1" displayName="Table1_1" ref="A1:C973" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C973" xr:uid="{24112913-5115-4A45-8927-3108FA77D38F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{24112913-5115-4A45-8927-3108FA77D38F}" name="Table1_1" displayName="Table1_1" ref="A1:C988" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C988" xr:uid="{24112913-5115-4A45-8927-3108FA77D38F}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{8F859507-84CB-413F-9284-928F1DC3CFC2}" uniqueName="1" name="date" queryTableFieldId="1" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{FE2C3BF3-97D2-4FBA-8C8B-F5374DB4B9CB}" uniqueName="2" name="dialer" queryTableFieldId="2" dataDxfId="0"/>
@@ -499,10 +499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A336F12-E6EB-444F-B1DE-07B907CCBF0C}">
-  <dimension ref="A1:O973"/>
+  <dimension ref="A1:O988"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A957" workbookViewId="0">
-      <selection activeCell="I966" sqref="I966"/>
+      <selection activeCell="S973" sqref="S973"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11264,6 +11264,171 @@
       </c>
       <c r="C973">
         <v>24</v>
+      </c>
+    </row>
+    <row r="974" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A974" s="1">
+        <v>45999</v>
+      </c>
+      <c r="B974" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C974">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="975" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A975" s="1">
+        <v>45999</v>
+      </c>
+      <c r="B975" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C975">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="976" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A976" s="1">
+        <v>45999</v>
+      </c>
+      <c r="B976" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C976">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="977" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A977" s="1">
+        <v>46000</v>
+      </c>
+      <c r="B977" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C977">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="978" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A978" s="1">
+        <v>46000</v>
+      </c>
+      <c r="B978" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C978">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="979" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A979" s="1">
+        <v>46000</v>
+      </c>
+      <c r="B979" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C979">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="980" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A980" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B980" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C980">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="981" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A981" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B981" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C981">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="982" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A982" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B982" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C982">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="983" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A983" s="1">
+        <v>46002</v>
+      </c>
+      <c r="B983" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C983">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="984" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A984" s="1">
+        <v>46002</v>
+      </c>
+      <c r="B984" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C984">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="985" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A985" s="1">
+        <v>46002</v>
+      </c>
+      <c r="B985" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C985">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="986" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A986" s="1">
+        <v>46003</v>
+      </c>
+      <c r="B986" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C986">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="987" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A987" s="1">
+        <v>46003</v>
+      </c>
+      <c r="B987" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C987">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="988" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A988" s="1">
+        <v>46003</v>
+      </c>
+      <c r="B988" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C988">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
